--- a/data/ES + technologies + inspiration.xlsx
+++ b/data/ES + technologies + inspiration.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="WDLta/Ki48KT3uDqUQ2sRTwr0TlTk8fn7xoVkHe0w+Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="/TIZHrEs7telOakMN8Dcc7qSebsqgpPbmLsXfaBDeqw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Authors</t>
   </si>
@@ -111,15 +111,6 @@
     <t>The history of urban food forestry is very recent and early projects represent highly valuable operational case studies to obtain precious information on challenges, best practices and results. The Picasso Food Forest represents the earliest documented case study of urban community food forest in Italy. By hosting several perennial woody plants, it provides ecosystem services typical of a tree system including making biodiverse fresh edible fruits, vegetables and herbaceous plant easily accessible to adults and children reconnecting them to healthy eating habits, food growing and the special experience of foraging and harvesting food directly from the plant in a nature-like setting. It has contributed to develop a neighborhood community, place attachment and meaning among the citizens that participate to its implementation or that simply attend the area. Compared to more traditional community gardens, the food forest provides a deeper interaction with the natural world and related benefits. This is achieved by exposing people to a greater understanding of ecological processes that are at the base of the food forest design and functioning, and to a more complex physical structure and biodiversity, more similar to wilderness, stimulating sense of wonder, exploration, curiosity and observation. The Picasso Food Forest represents a hotspot of biodiversity providing a plant and wildlife nursery and shelter, and a genetic bank by including several heritage and local varieties. The setting of a case study that provides inspiration for new analogous projects in Italy and Europe is one of the main achievements. The Picasso Food Forest successfully challenges issues such as biodiversity loss, community segregation, food insecurity, climate breakdown, unsustainable consumption and production systems and it provides a model to rethink not only how cities should be designed but also how we, as a species, shall provide for our needs and live on this planet.</t>
   </si>
   <si>
-    <t>Katsanevakis, Stelios; Roy, Helen E.</t>
-  </si>
-  <si>
-    <t>Alien species related information systems and information management</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Lebdioui, Amir</t>
   </si>
   <si>
@@ -135,25 +126,7 @@
     <t>Grand challenges in entomology: Priorities for action in the coming decades</t>
   </si>
   <si>
-    <t>1. Entomology is key to understanding terrestrial and freshwater ecosystems at a time of unprecedented anthropogenic environmental change and offers substantial untapped potential to benefit humanity in a variety of ways, from improving agricultural practices to managing vector-borne diseases and inspiring technological advances.2. We identified high priority challenges for entomology using an inclusive, open, and democratic four-stage prioritisation approach, conducted among the membership and affiliates (hereafter 'members') of the UK-based Royal Entomological Society (RES).3. A list of 710 challenges was gathered from 189 RES members. Thematic analysis was used to group suggestions, followed by an online vote to determine initial priorities, which were subsequently ranked during an online workshop involving 37 participants.4. The outcome was a set of 61 priority challenges within four groupings of related themes: (i) 'Fundamental Research' (themes: Taxonomy, 'Blue Skies' [defined as research ideas without immediate practical application], Methods and Techniques); (ii) 'Anthropogenic Impacts and Conservation' (themes: Anthropogenic Impacts, Conservation Options); (iii) 'Uses, Ecosystem Services and Disservices' (themes: Ecosystem Benefits, Technology and Resources [use of insects as a resource, or as inspiration], Pests); (iv) 'Collaboration, Engagement and Training' (themes: Knowledge Access, Training and Collaboration, Societal Engagement).5. Priority challenges encompass research questions, funding objectives, new technologies, and priorities for outreach and engagement. Examples include training taxonomists, establishing a global network of insect monitoring sites, understanding the extent of insect declines, exploring roles of cultivated insects in food supply chains, and connecting professional with amateur entomologists. Responses to different challenges could be led by amateur and professional entomologists, at all career stages.6. Overall, the challenges provide a diverse array of options to inspire and initiate entomological activities and reveal the potential of entomology to contribute to addressing global challenges related to human health and well-being, and environmental change.</t>
-  </si>
-  <si>
-    <t>Günaydın, Cansu</t>
-  </si>
-  <si>
-    <t>A Model to Interpret Bio-Inspired Design and Its Impact on Design Curricula</t>
-  </si>
-  <si>
-    <t>Cardoso, TiagoOliveira Machado de Figueiredo</t>
-  </si>
-  <si>
-    <t>Proactive Services Ecosystem Framework</t>
-  </si>
-  <si>
-    <t>Sterk, Barbara</t>
-  </si>
-  <si>
-    <t>A Window of Opportunities : the Contributions of Land Use Modelling to Societal Learning</t>
+    <t>Entomology is key to understanding terrestrial and freshwater ecosystems at a time of unprecedented anthropogenic environmental change and offers substantial untapped potential to benefit humanity in a variety of ways, from improving agricultural practices to managing vector-borne diseases and inspiring technological advances.2. We identified high priority challenges for entomology using an inclusive, open, and democratic four-stage prioritisation approach, conducted among the membership and affiliates (hereafter 'members') of the UK-based Royal Entomological Society (RES).3. A list of 710 challenges was gathered from 189 RES members. Thematic analysis was used to group suggestions, followed by an online vote to determine initial priorities, which were subsequently ranked during an online workshop involving 37 participants.4. The outcome was a set of 61 priority challenges within four groupings of related themes: (i) 'Fundamental Research' (themes: Taxonomy, 'Blue Skies' [defined as research ideas without immediate practical application], Methods and Techniques); (ii) 'Anthropogenic Impacts and Conservation' (themes: Anthropogenic Impacts, Conservation Options); (iii) 'Uses, Ecosystem Services and Disservices' (themes: Ecosystem Benefits, Technology and Resources [use of insects as a resource, or as inspiration], Pests); (iv) 'Collaboration, Engagement and Training' (themes: Knowledge Access, Training and Collaboration, Societal Engagement).5. Priority challenges encompass research questions, funding objectives, new technologies, and priorities for outreach and engagement. Examples include training taxonomists, establishing a global network of insect monitoring sites, understanding the extent of insect declines, exploring roles of cultivated insects in food supply chains, and connecting professional with amateur entomologists. Responses to different challenges could be led by amateur and professional entomologists, at all career stages.6. Overall, the challenges provide a diverse array of options to inspire and initiate entomological activities and reveal the potential of entomology to contribute to addressing global challenges related to human health and well-being, and environmental change.</t>
   </si>
 </sst>
 </file>
@@ -192,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -200,6 +173,9 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -570,7 +546,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="2">
-        <v>2015.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>33</v>
@@ -584,67 +560,31 @@
         <v>35</v>
       </c>
       <c r="C12" s="2">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2023.0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2011.0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2007.0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="1"/>
@@ -5540,26 +5480,6 @@
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="D995" s="1"/>
-    </row>
-    <row r="996" ht="12.75" customHeight="1">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="D996" s="1"/>
-    </row>
-    <row r="997" ht="12.75" customHeight="1">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="D997" s="1"/>
-    </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="D998" s="1"/>
-    </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="D999" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
